--- a/risnur2.xlsx
+++ b/risnur2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78885C5C-60A8-45DA-A1FC-2AFF6AEFEDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F00165F-90E3-45EA-A403-1D78C0A9F61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risnur2.xlsx
+++ b/risnur2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F00165F-90E3-45EA-A403-1D78C0A9F61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CEAF542-E7F0-4338-A924-4931566526DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,115 +63,121 @@
     <t>Mkm_s1l</t>
   </si>
   <si>
+    <t>Mutiara</t>
+  </si>
+  <si>
     <t>Ina Suryaningdiri</t>
   </si>
   <si>
-    <t>Mutiara</t>
+    <t>EDN_S1l</t>
+  </si>
+  <si>
+    <t>l Ketut Juliana</t>
   </si>
   <si>
     <t>Della Saskia</t>
   </si>
   <si>
+    <t>Jesika Ardia</t>
+  </si>
+  <si>
+    <t>Dinda Elladora Diamanta</t>
+  </si>
+  <si>
+    <t>Xinghao_s1l</t>
+  </si>
+  <si>
+    <t>Ratna Dwi</t>
+  </si>
+  <si>
     <t>Darman Harefa</t>
   </si>
   <si>
-    <t>EDN_S1l</t>
-  </si>
-  <si>
     <t>Yaya Utri Parsana</t>
   </si>
   <si>
-    <t>Xinghao_s1l</t>
-  </si>
-  <si>
-    <t>Ratna Dwi</t>
-  </si>
-  <si>
     <t>Gina N</t>
   </si>
   <si>
     <t>Anisa_s1</t>
   </si>
   <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>Raina Claresta Purwanika</t>
+  </si>
+  <si>
+    <t>Ghiyar Walidain</t>
+  </si>
+  <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>Jesika Ardia</t>
-  </si>
-  <si>
-    <t>Dinda Elladora Diamanta</t>
+    <t>Hendri</t>
+  </si>
+  <si>
+    <t>Nofrianas Rahma Dilla</t>
   </si>
   <si>
     <t>Isti qomah</t>
   </si>
   <si>
-    <t>l Ketut Juliana</t>
-  </si>
-  <si>
-    <t>Nofrianas Rahma Dilla</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>Raina Claresta Purwanika</t>
-  </si>
-  <si>
-    <t>Hendri</t>
+    <t>Rifka Dwi Putri Amalia</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
   </si>
   <si>
     <t>Rusli</t>
   </si>
   <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Ghiyar Walidain</t>
+    <t>Puspa</t>
+  </si>
+  <si>
+    <t>Citra</t>
+  </si>
+  <si>
+    <t>Ricky Agus Rafika</t>
   </si>
   <si>
     <t>Anisa Fadillah</t>
   </si>
   <si>
-    <t>Rifka Dwi Putri Amalia</t>
-  </si>
-  <si>
-    <t>Citra</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>Ricky Agus Rafika</t>
-  </si>
-  <si>
-    <t>Puspa</t>
+    <t>Dicky Maulana Said</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>Supiana</t>
+  </si>
+  <si>
+    <t>Alvan Nur</t>
   </si>
   <si>
     <t>Devi Pratiwi</t>
   </si>
   <si>
-    <t>Alvan Nur</t>
-  </si>
-  <si>
-    <t>Dicky Maulana Said</t>
-  </si>
-  <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
+    <t>Indah Putri</t>
+  </si>
+  <si>
+    <t>Rahmawati</t>
+  </si>
+  <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>Rahmawati</t>
-  </si>
-  <si>
-    <t>Supiana</t>
-  </si>
-  <si>
-    <t>Indah Putri</t>
+    <t>Alya Putri Arfiani</t>
+  </si>
+  <si>
+    <t>PUTRI NISYA AFIRA</t>
   </si>
   <si>
     <t>Dimas Kuat Anggowo</t>
@@ -180,40 +186,34 @@
     <t>Lina Fitriani</t>
   </si>
   <si>
-    <t>PUTRI NISYA AFIRA</t>
-  </si>
-  <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>Alya Putri Arfiani</t>
-  </si>
-  <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
+    <t>Jingga Liani</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>Jingga Liani</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
+    <t>Muhammad Rizki</t>
+  </si>
+  <si>
+    <t>Nafisah Mabrukah</t>
   </si>
   <si>
     <t>Sevia Putri</t>
   </si>
   <si>
-    <t>Muhammad Rizki</t>
-  </si>
-  <si>
-    <t>Nafisah Mabrukah</t>
+    <t>Febri Fransiska</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>Febri Fransiska</t>
   </si>
   <si>
     <t>Moh Solihin</t>
@@ -614,7 +614,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F2" sqref="F2:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,14 +650,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>472364521</v>
+        <v>518040887</v>
       </c>
       <c r="E2">
-        <v>140555689</v>
+        <v>156014958</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.29755767580182002</v>
+        <v>0.30116340604597874</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,14 +671,14 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>336895129</v>
+        <v>521321618</v>
       </c>
       <c r="E3">
-        <v>98006602</v>
+        <v>146889121</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F54" si="0">E3/D3</f>
-        <v>0.29091130611152294</v>
+        <v>0.28176295769879239</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -692,14 +692,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>478542692</v>
+        <v>374249706</v>
       </c>
       <c r="E4">
-        <v>137269109</v>
+        <v>105101489</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.28684819827945468</v>
+        <v>0.28083252255113328</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,20 +707,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>471159772</v>
+        <v>455819332</v>
       </c>
       <c r="E5">
-        <v>127585390</v>
+        <v>123801972</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.27079007500665825</v>
+        <v>0.27160316228097142</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,17 +731,17 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>466936417</v>
+        <v>513333043</v>
       </c>
       <c r="E6">
-        <v>123939718</v>
+        <v>136395396</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.26543168081918955</v>
+        <v>0.26570546716198823</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,20 +749,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>389496739</v>
+        <v>379648112</v>
       </c>
       <c r="E7">
-        <v>102803118</v>
+        <v>96345106</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.26393832786363841</v>
+        <v>0.25377475339584987</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,20 +770,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
       <c r="D8">
-        <v>487622104</v>
+        <v>502028572</v>
       </c>
       <c r="E8">
-        <v>127247028</v>
+        <v>127224881</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.26095418348795774</v>
+        <v>0.25342159410002663</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,20 +791,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9">
-        <v>490922282</v>
+        <v>536091640</v>
       </c>
       <c r="E9">
-        <v>126971019</v>
+        <v>135229220</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.2586377185462525</v>
+        <v>0.25225019364226609</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,20 +812,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
       <c r="D10">
-        <v>471506138</v>
+        <v>505686344</v>
       </c>
       <c r="E10">
-        <v>120984257</v>
+        <v>125929341</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.2565910541762661</v>
+        <v>0.24902658039743308</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,20 +833,20 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>339540105</v>
+        <v>430178395</v>
       </c>
       <c r="E11">
-        <v>86572763</v>
+        <v>107082688</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.25497065508653244</v>
+        <v>0.24892623442885828</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -857,17 +857,17 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>462767372</v>
+        <v>536702648</v>
       </c>
       <c r="E12">
-        <v>117917354</v>
+        <v>130468293</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.25480913550664069</v>
+        <v>0.24309232213812368</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,20 +875,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13">
-        <v>495510276</v>
+        <v>518193236</v>
       </c>
       <c r="E13">
-        <v>125386152</v>
+        <v>125663154</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.25304450396503986</v>
+        <v>0.2425024976590007</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,20 +896,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14">
-        <v>409628264</v>
+        <v>516033934</v>
       </c>
       <c r="E14">
-        <v>103437718</v>
+        <v>124437815</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.25251606661595011</v>
+        <v>0.24114269779785452</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,20 +917,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15">
-        <v>478918061</v>
+        <v>428523005</v>
       </c>
       <c r="E15">
-        <v>120164578</v>
+        <v>103248992</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.2509084283626547</v>
+        <v>0.24094153824950426</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,20 +938,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16">
-        <v>473413126</v>
+        <v>515738397</v>
       </c>
       <c r="E16">
-        <v>118205332</v>
+        <v>124217810</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.24968748331663285</v>
+        <v>0.24085429885105103</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,20 +959,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17">
-        <v>475514713</v>
+        <v>513104119</v>
       </c>
       <c r="E17">
-        <v>118152265</v>
+        <v>122877167</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.24847236430305786</v>
+        <v>0.23947803662047781</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,20 +980,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>470178922</v>
+        <v>527643571</v>
       </c>
       <c r="E18">
-        <v>116060764</v>
+        <v>125679521</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.24684382597652899</v>
+        <v>0.23819018729217115</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,20 +1001,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19">
-        <v>390288494</v>
+        <v>543400231</v>
       </c>
       <c r="E19">
-        <v>95846044</v>
+        <v>129462007</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.24557742663046583</v>
+        <v>0.23824429879566983</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1028,14 +1028,14 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>477481908</v>
+        <v>536910815</v>
       </c>
       <c r="E20">
-        <v>116460408</v>
+        <v>127255043</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.2439053837407385</v>
+        <v>0.23701337250954799</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,20 +1043,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21">
-        <v>379866014</v>
+        <v>522300838</v>
       </c>
       <c r="E21">
-        <v>91649213</v>
+        <v>121664897</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.24126720902175786</v>
+        <v>0.23294026765471129</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,20 +1064,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22">
-        <v>464841497</v>
+        <v>528867633</v>
       </c>
       <c r="E22">
-        <v>112034082</v>
+        <v>122689746</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.24101566388338175</v>
+        <v>0.23198573394261773</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,20 +1085,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23">
-        <v>494896402</v>
+        <v>436260280</v>
       </c>
       <c r="E23">
-        <v>118280253</v>
+        <v>100866447</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.23900002611051516</v>
+        <v>0.23120703768860185</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,20 +1106,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>470874465</v>
+        <v>521885600</v>
       </c>
       <c r="E24">
-        <v>111515591</v>
+        <v>120469694</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.23682658391764777</v>
+        <v>0.23083544362979166</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,20 +1127,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
-        <v>488776351</v>
+        <v>523721212</v>
       </c>
       <c r="E25">
-        <v>115674927</v>
+        <v>119671263</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.2366622827870819</v>
+        <v>0.2285018446035369</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,14 +1154,14 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>480819972</v>
+        <v>529477203</v>
       </c>
       <c r="E26">
-        <v>113794107</v>
+        <v>120468910</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.23666676433315878</v>
+        <v>0.22752426226743513</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,20 +1169,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
-        <v>482562341</v>
+        <v>509103738</v>
       </c>
       <c r="E27">
-        <v>114015875</v>
+        <v>115714932</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.23627180430973579</v>
+        <v>0.22729146019352151</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1196,14 +1196,14 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>464715160</v>
+        <v>526303601</v>
       </c>
       <c r="E28">
-        <v>108914595</v>
+        <v>119509797</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.23436850005065468</v>
+        <v>0.22707387289945599</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,20 +1211,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29">
-        <v>485389844</v>
+        <v>498999473</v>
       </c>
       <c r="E29">
-        <v>112750156</v>
+        <v>112644748</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.23228783501288092</v>
+        <v>0.22574121636396999</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,20 +1232,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30">
-        <v>479283000</v>
+        <v>627878209</v>
       </c>
       <c r="E30">
-        <v>109263608</v>
+        <v>139482162</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.22797305141221366</v>
+        <v>0.22214843579640778</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1253,20 +1253,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31">
-        <v>485967397</v>
+        <v>535919732</v>
       </c>
       <c r="E31">
-        <v>110345089</v>
+        <v>117480165</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.22706274058957088</v>
+        <v>0.21921224016435356</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1274,20 +1274,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32">
-        <v>465532260</v>
+        <v>515908774</v>
       </c>
       <c r="E32">
-        <v>104192823</v>
+        <v>111552042</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.22381439902789982</v>
+        <v>0.2162243551996656</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,20 +1295,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33">
-        <v>459138181</v>
+        <v>541397842</v>
       </c>
       <c r="E33">
-        <v>102562729</v>
+        <v>114943553</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.22338096295241452</v>
+        <v>0.21230884957978832</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1316,20 +1316,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34">
-        <v>487931846</v>
+        <v>523002823</v>
       </c>
       <c r="E34">
-        <v>108557783</v>
+        <v>110766999</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.22248554565548895</v>
+        <v>0.21179044190359944</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,20 +1337,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
       </c>
       <c r="D35">
-        <v>576101834</v>
+        <v>542600030</v>
       </c>
       <c r="E35">
-        <v>127935739</v>
+        <v>114635449</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.22207139684266305</v>
+        <v>0.21127062783243855</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,20 +1358,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
       </c>
       <c r="D36">
-        <v>479079715</v>
+        <v>513437275</v>
       </c>
       <c r="E36">
-        <v>105253138</v>
+        <v>108294543</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0.21969859024400565</v>
+        <v>0.21092068743937611</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,20 +1379,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37">
-        <v>434199236</v>
+        <v>516893071</v>
       </c>
       <c r="E37">
-        <v>93240325</v>
+        <v>107730063</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0.21474087761867919</v>
+        <v>0.20841846997790381</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,20 +1400,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38">
-        <v>483467285</v>
+        <v>617911130</v>
       </c>
       <c r="E38">
-        <v>101479889</v>
+        <v>127131751</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.20990021899827205</v>
+        <v>0.20574439401989733</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,20 +1421,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39">
-        <v>571780102</v>
+        <v>479818732</v>
       </c>
       <c r="E39">
-        <v>119702710</v>
+        <v>98297532</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.20935095429396386</v>
+        <v>0.20486389014091264</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1442,20 +1442,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
       </c>
       <c r="D40">
-        <v>464918242</v>
+        <v>530415213</v>
       </c>
       <c r="E40">
-        <v>96800445</v>
+        <v>107763502</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>0.20820960817450565</v>
+        <v>0.20316819608264139</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,20 +1463,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="D41">
-        <v>480160079</v>
+        <v>508979097</v>
       </c>
       <c r="E41">
-        <v>99824995</v>
+        <v>103032040</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0.20789940556470127</v>
+        <v>0.20242882390904945</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,20 +1484,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42">
-        <v>435180762</v>
+        <v>474263717</v>
       </c>
       <c r="E42">
-        <v>87773882</v>
+        <v>92687685</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>0.20169522567268267</v>
+        <v>0.19543490610309538</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,20 +1505,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
       </c>
       <c r="D43">
-        <v>460307849</v>
+        <v>522490858</v>
       </c>
       <c r="E43">
-        <v>92070508</v>
+        <v>101412661</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>0.20001941787440605</v>
+        <v>0.19409461323053426</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,20 +1526,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
       </c>
       <c r="D44">
-        <v>473746641</v>
+        <v>526872236</v>
       </c>
       <c r="E44">
-        <v>90480320</v>
+        <v>99238707</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>0.19098883700581215</v>
+        <v>0.18835440590572322</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,20 +1547,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
       </c>
       <c r="D45">
-        <v>484018667</v>
+        <v>510254443</v>
       </c>
       <c r="E45">
-        <v>91541747</v>
+        <v>95835814</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>0.18912854656491998</v>
+        <v>0.18781965608479767</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,20 +1568,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
       </c>
       <c r="D46">
-        <v>499896651</v>
+        <v>620512414</v>
       </c>
       <c r="E46">
-        <v>93678315</v>
+        <v>114731857</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>0.18739536424699912</v>
+        <v>0.18489856836288854</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,20 +1589,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
       </c>
       <c r="D47">
-        <v>578967663</v>
+        <v>510169456</v>
       </c>
       <c r="E47">
-        <v>106244884</v>
+        <v>90688500</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>0.18350745782498046</v>
+        <v>0.17776152400625098</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,20 +1610,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
       </c>
       <c r="D48">
-        <v>464094246</v>
+        <v>545697158</v>
       </c>
       <c r="E48">
-        <v>83683437</v>
+        <v>96704478</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>0.18031560985998521</v>
+        <v>0.17721272061306942</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,20 +1631,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49">
-        <v>486621971</v>
+        <v>534056474</v>
       </c>
       <c r="E49">
-        <v>86528479</v>
+        <v>92719111</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>0.17781457508419815</v>
+        <v>0.17361293330188149</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,20 +1652,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50">
-        <v>486261976</v>
+        <v>529381408</v>
       </c>
       <c r="E50">
-        <v>85959564</v>
+        <v>89139332</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>0.17677624046836843</v>
+        <v>0.16838394898825007</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,20 +1673,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>61</v>
       </c>
       <c r="D51">
-        <v>510591350</v>
+        <v>556337706</v>
       </c>
       <c r="E51">
-        <v>90229786</v>
+        <v>92425035</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0.17671624480124859</v>
+        <v>0.16613117177428918</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,20 +1694,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>62</v>
       </c>
       <c r="D52">
-        <v>597995045</v>
+        <v>636146779</v>
       </c>
       <c r="E52">
-        <v>100396865</v>
+        <v>104398885</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0.16788912523514304</v>
+        <v>0.16411131588862451</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,20 +1715,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
       </c>
       <c r="D53">
-        <v>492306695</v>
+        <v>529244588</v>
       </c>
       <c r="E53">
-        <v>73930526</v>
+        <v>81703172</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>0.15017168515248405</v>
+        <v>0.1543769626605988</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>

--- a/risnur2.xlsx
+++ b/risnur2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CEAF542-E7F0-4338-A924-4931566526DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E055B6-1B3D-4826-8292-F9629E485461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F54"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risnur2.xlsx
+++ b/risnur2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E055B6-1B3D-4826-8292-F9629E485461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{896312E3-33FB-47DA-8961-62618A7E8CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risnur2.xlsx
+++ b/risnur2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896312E3-33FB-47DA-8961-62618A7E8CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{168E80DF-9937-44A5-BCD7-91EF9AE2B570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,13 @@
     <t>Mkm_s1l</t>
   </si>
   <si>
+    <t>Ina Suryaningdiri</t>
+  </si>
+  <si>
     <t>Mutiara</t>
   </si>
   <si>
-    <t>Ina Suryaningdiri</t>
+    <t>Della Saskia</t>
   </si>
   <si>
     <t>EDN_S1l</t>
@@ -75,25 +78,37 @@
     <t>l Ketut Juliana</t>
   </si>
   <si>
-    <t>Della Saskia</t>
-  </si>
-  <si>
     <t>Jesika Ardia</t>
   </si>
   <si>
+    <t>Yaya Utri Parsana</t>
+  </si>
+  <si>
+    <t>Nofrianas Rahma Dilla</t>
+  </si>
+  <si>
+    <t>Xinghao_s1l</t>
+  </si>
+  <si>
+    <t>Hendri</t>
+  </si>
+  <si>
     <t>Dinda Elladora Diamanta</t>
   </si>
   <si>
-    <t>Xinghao_s1l</t>
+    <t>Ghiyar Walidain</t>
+  </si>
+  <si>
+    <t>Darman Harefa</t>
   </si>
   <si>
     <t>Ratna Dwi</t>
   </si>
   <si>
-    <t>Darman Harefa</t>
-  </si>
-  <si>
-    <t>Yaya Utri Parsana</t>
+    <t>Isti qomah</t>
+  </si>
+  <si>
+    <t>Puspa</t>
   </si>
   <si>
     <t>Gina N</t>
@@ -102,61 +117,52 @@
     <t>Anisa_s1</t>
   </si>
   <si>
+    <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>Rifka Dwi Putri Amalia</t>
+  </si>
+  <si>
+    <t>Supiana</t>
+  </si>
+  <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
+    <t>Anisa Fadillah</t>
+  </si>
+  <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>Ghiyar Walidain</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>Hendri</t>
-  </si>
-  <si>
-    <t>Nofrianas Rahma Dilla</t>
-  </si>
-  <si>
-    <t>Isti qomah</t>
-  </si>
-  <si>
-    <t>Rifka Dwi Putri Amalia</t>
+    <t>Citra</t>
+  </si>
+  <si>
+    <t>Rusli</t>
   </si>
   <si>
     <t>Amelia</t>
   </si>
   <si>
+    <t>Ricky Agus Rafika</t>
+  </si>
+  <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>Rusli</t>
-  </si>
-  <si>
-    <t>Puspa</t>
-  </si>
-  <si>
-    <t>Citra</t>
-  </si>
-  <si>
-    <t>Ricky Agus Rafika</t>
-  </si>
-  <si>
-    <t>Anisa Fadillah</t>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>Alvan Nur</t>
   </si>
   <si>
     <t>Dicky Maulana Said</t>
   </si>
   <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>Supiana</t>
-  </si>
-  <si>
-    <t>Alvan Nur</t>
+    <t>Indah Putri</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
   </si>
   <si>
     <t>Devi Pratiwi</t>
@@ -165,46 +171,40 @@
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>Indah Putri</t>
-  </si>
-  <si>
     <t>Rahmawati</t>
   </si>
   <si>
-    <t>Anisa Inraniwi</t>
+    <t>Fachrul Rozi</t>
+  </si>
+  <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
+    <t>PUTRI NISYA AFIRA</t>
   </si>
   <si>
     <t>Alya Putri Arfiani</t>
   </si>
   <si>
-    <t>PUTRI NISYA AFIRA</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
+    <t>Jingga Liani</t>
   </si>
   <si>
     <t>Lina Fitriani</t>
   </si>
   <si>
-    <t>Fachrul Rozi</t>
+    <t>Muhammad Rizki</t>
+  </si>
+  <si>
+    <t>Nafisah Mabrukah</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>Jingga Liani</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
     <t>Riska Rahmayanti</t>
-  </si>
-  <si>
-    <t>Muhammad Rizki</t>
-  </si>
-  <si>
-    <t>Nafisah Mabrukah</t>
   </si>
   <si>
     <t>Sevia Putri</t>
@@ -614,7 +614,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,11 +653,11 @@
         <v>518040887</v>
       </c>
       <c r="E2">
-        <v>156014958</v>
+        <v>164753215</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.30116340604597874</v>
+        <v>0.31803129663006696</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,14 +671,14 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>521321618</v>
+        <v>374249706</v>
       </c>
       <c r="E3">
-        <v>146889121</v>
+        <v>113150844</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F54" si="0">E3/D3</f>
-        <v>0.28176295769879239</v>
+        <v>0.30234050203903168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -692,14 +692,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>374249706</v>
+        <v>521321618</v>
       </c>
       <c r="E4">
-        <v>105101489</v>
+        <v>154580356</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.28083252255113328</v>
+        <v>0.29651629754590381</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,20 +707,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5">
-        <v>455819332</v>
+        <v>513333043</v>
       </c>
       <c r="E5">
-        <v>123801972</v>
+        <v>150964861</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.27160316228097142</v>
+        <v>0.29408755788978114</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,20 +728,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>513333043</v>
+        <v>455819332</v>
       </c>
       <c r="E6">
-        <v>136395396</v>
+        <v>126015741</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.26570546716198823</v>
+        <v>0.27645984308537402</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,11 +758,11 @@
         <v>379648112</v>
       </c>
       <c r="E7">
-        <v>96345106</v>
+        <v>101858633</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.25377475339584987</v>
+        <v>0.26829748332845654</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,20 +770,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8">
-        <v>502028572</v>
+        <v>430178395</v>
       </c>
       <c r="E8">
-        <v>127224881</v>
+        <v>114627671</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.25342159410002663</v>
+        <v>0.26646542999910539</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,20 +791,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
       <c r="D9">
-        <v>536091640</v>
+        <v>527643571</v>
       </c>
       <c r="E9">
-        <v>135229220</v>
+        <v>140132497</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.25225019364226609</v>
+        <v>0.26558173869989216</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,20 +812,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10">
-        <v>505686344</v>
+        <v>513104119</v>
       </c>
       <c r="E10">
-        <v>125929341</v>
+        <v>135266205</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.24902658039743308</v>
+        <v>0.26362330761176367</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,20 +833,20 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11">
-        <v>430178395</v>
+        <v>502028572</v>
       </c>
       <c r="E11">
-        <v>107082688</v>
+        <v>131665174</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.24892623442885828</v>
+        <v>0.26226629587130351</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,20 +854,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12">
-        <v>536702648</v>
+        <v>428523005</v>
       </c>
       <c r="E12">
-        <v>130468293</v>
+        <v>110303927</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.24309232213812368</v>
+        <v>0.25740491341882565</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,20 +875,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
       <c r="D13">
-        <v>518193236</v>
+        <v>505686344</v>
       </c>
       <c r="E13">
-        <v>125663154</v>
+        <v>129614793</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.2425024976590007</v>
+        <v>0.25631460002408135</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,20 +896,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>516033934</v>
+        <v>536091640</v>
       </c>
       <c r="E14">
-        <v>124437815</v>
+        <v>137310970</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.24114269779785452</v>
+        <v>0.25613339167161792</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,20 +917,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>428523005</v>
+        <v>543400231</v>
       </c>
       <c r="E15">
-        <v>103248992</v>
+        <v>138682725</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.24094153824950426</v>
+        <v>0.2552128561756169</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,20 +938,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>515738397</v>
+        <v>521885600</v>
       </c>
       <c r="E16">
-        <v>124217810</v>
+        <v>132338585</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.24085429885105103</v>
+        <v>0.25357776685158584</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,20 +959,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>513104119</v>
+        <v>536702648</v>
       </c>
       <c r="E17">
-        <v>122877167</v>
+        <v>135287152</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.23947803662047781</v>
+        <v>0.25207096052933953</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,20 +980,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>527643571</v>
+        <v>515738397</v>
       </c>
       <c r="E18">
-        <v>125679521</v>
+        <v>129714589</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.23819018729217115</v>
+        <v>0.25151237479027572</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1007,14 +1007,14 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>543400231</v>
+        <v>536910815</v>
       </c>
       <c r="E19">
-        <v>129462007</v>
+        <v>134665961</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.23824429879566983</v>
+        <v>0.25081625707241528</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,20 +1022,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20">
-        <v>536910815</v>
+        <v>627878209</v>
       </c>
       <c r="E20">
-        <v>127255043</v>
+        <v>156258985</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.23701337250954799</v>
+        <v>0.24886830401212412</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,20 +1043,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21">
-        <v>522300838</v>
+        <v>518193236</v>
       </c>
       <c r="E21">
-        <v>121664897</v>
+        <v>128070922</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.23294026765471129</v>
+        <v>0.24714896510150511</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,20 +1064,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22">
-        <v>528867633</v>
+        <v>509103738</v>
       </c>
       <c r="E22">
-        <v>122689746</v>
+        <v>125745755</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.23198573394261773</v>
+        <v>0.24699436600876029</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,20 +1085,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23">
-        <v>436260280</v>
+        <v>516033934</v>
       </c>
       <c r="E23">
-        <v>100866447</v>
+        <v>126619679</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.23120703768860185</v>
+        <v>0.24537083834490622</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,20 +1106,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>521885600</v>
+        <v>523721212</v>
       </c>
       <c r="E24">
-        <v>120469694</v>
+        <v>128404413</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.23083544362979166</v>
+        <v>0.24517703323423914</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,20 +1127,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
-        <v>523721212</v>
+        <v>436260280</v>
       </c>
       <c r="E25">
-        <v>119671263</v>
+        <v>106538163</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.2285018446035369</v>
+        <v>0.24420779952738306</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,14 +1154,14 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>529477203</v>
+        <v>522300838</v>
       </c>
       <c r="E26">
-        <v>120468910</v>
+        <v>127088773</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.22752426226743513</v>
+        <v>0.24332484988277964</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,20 +1169,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
-        <v>509103738</v>
+        <v>529477203</v>
       </c>
       <c r="E27">
-        <v>115714932</v>
+        <v>128302360</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.22729146019352151</v>
+        <v>0.24231895022683347</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,20 +1190,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28">
-        <v>526303601</v>
+        <v>528867633</v>
       </c>
       <c r="E28">
-        <v>119509797</v>
+        <v>125589961</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.22707387289945599</v>
+        <v>0.23746955412565396</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -1220,11 +1220,11 @@
         <v>498999473</v>
       </c>
       <c r="E29">
-        <v>112644748</v>
+        <v>117374833</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.22574121636396999</v>
+        <v>0.2352203546315168</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,20 +1232,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30">
-        <v>627878209</v>
+        <v>535919732</v>
       </c>
       <c r="E30">
-        <v>139482162</v>
+        <v>125692363</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.22214843579640778</v>
+        <v>0.23453579984996709</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1253,20 +1253,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31">
-        <v>535919732</v>
+        <v>526303601</v>
       </c>
       <c r="E31">
-        <v>117480165</v>
+        <v>122772729</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.21921224016435356</v>
+        <v>0.23327358727306144</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1280,14 +1280,14 @@
         <v>42</v>
       </c>
       <c r="D32">
-        <v>515908774</v>
+        <v>523002823</v>
       </c>
       <c r="E32">
-        <v>111552042</v>
+        <v>121335114</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.2162243551996656</v>
+        <v>0.23199705367555923</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,20 +1295,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33">
-        <v>541397842</v>
+        <v>513437275</v>
       </c>
       <c r="E33">
-        <v>114943553</v>
+        <v>116798870</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.21230884957978832</v>
+        <v>0.22748420437530564</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1322,14 +1322,14 @@
         <v>44</v>
       </c>
       <c r="D34">
-        <v>523002823</v>
+        <v>515908774</v>
       </c>
       <c r="E34">
-        <v>110766999</v>
+        <v>115516363</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.21179044190359944</v>
+        <v>0.22390850635155121</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,20 +1337,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
       </c>
       <c r="D35">
-        <v>542600030</v>
+        <v>541397842</v>
       </c>
       <c r="E35">
-        <v>114635449</v>
+        <v>121147550</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.21127062783243855</v>
+        <v>0.22376806961857082</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,20 +1358,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
       </c>
       <c r="D36">
-        <v>513437275</v>
+        <v>542600030</v>
       </c>
       <c r="E36">
-        <v>108294543</v>
+        <v>119569869</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0.21092068743937611</v>
+        <v>0.22036465608009642</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,20 +1379,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37">
-        <v>516893071</v>
+        <v>508979097</v>
       </c>
       <c r="E37">
-        <v>107730063</v>
+        <v>111525647</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0.20841846997790381</v>
+        <v>0.21911635990033596</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,20 +1400,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38">
-        <v>617911130</v>
+        <v>479818732</v>
       </c>
       <c r="E38">
-        <v>127131751</v>
+        <v>105085342</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.20574439401989733</v>
+        <v>0.21901050332482644</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,20 +1421,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39">
-        <v>479818732</v>
+        <v>617911130</v>
       </c>
       <c r="E39">
-        <v>98297532</v>
+        <v>133850436</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.20486389014091264</v>
+        <v>0.21661761619344841</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1442,20 +1442,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
       </c>
       <c r="D40">
-        <v>530415213</v>
+        <v>516893071</v>
       </c>
       <c r="E40">
-        <v>107763502</v>
+        <v>111384087</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>0.20316819608264139</v>
+        <v>0.21548767675394123</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,20 +1463,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="D41">
-        <v>508979097</v>
+        <v>522490858</v>
       </c>
       <c r="E41">
-        <v>103032040</v>
+        <v>110230141</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0.20242882390904945</v>
+        <v>0.21097046831008859</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,20 +1484,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42">
-        <v>474263717</v>
+        <v>530415213</v>
       </c>
       <c r="E42">
-        <v>92687685</v>
+        <v>111449662</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>0.19543490610309538</v>
+        <v>0.2101177705097233</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,20 +1505,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
       </c>
       <c r="D43">
-        <v>522490858</v>
+        <v>620512414</v>
       </c>
       <c r="E43">
-        <v>101412661</v>
+        <v>128223924</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>0.19409461323053426</v>
+        <v>0.20664199636785993</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,20 +1526,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
       </c>
       <c r="D44">
-        <v>526872236</v>
+        <v>510169456</v>
       </c>
       <c r="E44">
-        <v>99238707</v>
+        <v>102358413</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>0.18835440590572322</v>
+        <v>0.20063610589811554</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,20 +1547,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
       </c>
       <c r="D45">
-        <v>510254443</v>
+        <v>526872236</v>
       </c>
       <c r="E45">
-        <v>95835814</v>
+        <v>105418950</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>0.18781965608479767</v>
+        <v>0.20008446601843716</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,20 +1568,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
       </c>
       <c r="D46">
-        <v>620512414</v>
+        <v>474263717</v>
       </c>
       <c r="E46">
-        <v>114731857</v>
+        <v>94430899</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>0.18489856836288854</v>
+        <v>0.1991105277825839</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,20 +1589,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
       </c>
       <c r="D47">
-        <v>510169456</v>
+        <v>510254443</v>
       </c>
       <c r="E47">
-        <v>90688500</v>
+        <v>100401383</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>0.17776152400625098</v>
+        <v>0.19676728811942948</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
@@ -1619,11 +1619,11 @@
         <v>545697158</v>
       </c>
       <c r="E48">
-        <v>96704478</v>
+        <v>101056603</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>0.17721272061306942</v>
+        <v>0.18518806909381044</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
@@ -1640,11 +1640,11 @@
         <v>534056474</v>
       </c>
       <c r="E49">
-        <v>92719111</v>
+        <v>97097135</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>0.17361293330188149</v>
+        <v>0.18181061315998578</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
@@ -1661,11 +1661,11 @@
         <v>529381408</v>
       </c>
       <c r="E50">
-        <v>89139332</v>
+        <v>95020728</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>0.16838394898825007</v>
+        <v>0.17949388959273765</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>61</v>
@@ -1682,11 +1682,11 @@
         <v>556337706</v>
       </c>
       <c r="E51">
-        <v>92425035</v>
+        <v>98127185</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0.16613117177428918</v>
+        <v>0.1763806118868384</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>62</v>
@@ -1703,11 +1703,11 @@
         <v>636146779</v>
       </c>
       <c r="E52">
-        <v>104398885</v>
+        <v>108407803</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0.16411131588862451</v>
+        <v>0.17041319170147051</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,7 +1715,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
@@ -1724,11 +1724,11 @@
         <v>529244588</v>
       </c>
       <c r="E53">
-        <v>81703172</v>
+        <v>86599454</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>0.1543769626605988</v>
+        <v>0.16362841673498604</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>

--- a/risnur2.xlsx
+++ b/risnur2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{168E80DF-9937-44A5-BCD7-91EF9AE2B570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22167C7C-CBD7-4072-80F2-38A04CD15DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,145 +78,145 @@
     <t>l Ketut Juliana</t>
   </si>
   <si>
+    <t>Yaya Utri Parsana</t>
+  </si>
+  <si>
+    <t>Nofrianas Rahma Dilla</t>
+  </si>
+  <si>
+    <t>Xinghao_s1l</t>
+  </si>
+  <si>
+    <t>Hendri</t>
+  </si>
+  <si>
     <t>Jesika Ardia</t>
   </si>
   <si>
-    <t>Yaya Utri Parsana</t>
-  </si>
-  <si>
-    <t>Nofrianas Rahma Dilla</t>
-  </si>
-  <si>
-    <t>Xinghao_s1l</t>
-  </si>
-  <si>
-    <t>Hendri</t>
-  </si>
-  <si>
     <t>Dinda Elladora Diamanta</t>
   </si>
   <si>
+    <t>Isti qomah</t>
+  </si>
+  <si>
+    <t>Supiana</t>
+  </si>
+  <si>
+    <t>Ratna Dwi</t>
+  </si>
+  <si>
+    <t>Anisa Fadillah</t>
+  </si>
+  <si>
     <t>Ghiyar Walidain</t>
   </si>
   <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>Puspa</t>
+  </si>
+  <si>
     <t>Darman Harefa</t>
   </si>
   <si>
-    <t>Ratna Dwi</t>
-  </si>
-  <si>
-    <t>Isti qomah</t>
-  </si>
-  <si>
-    <t>Puspa</t>
+    <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>Raina Claresta Purwanika</t>
+  </si>
+  <si>
+    <t>Rusli</t>
+  </si>
+  <si>
+    <t>Citra</t>
   </si>
   <si>
     <t>Gina N</t>
   </si>
   <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
+    <t>Ricky Agus Rafika</t>
   </si>
   <si>
     <t>Rifka Dwi Putri Amalia</t>
   </si>
   <si>
-    <t>Supiana</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>Anisa Fadillah</t>
-  </si>
-  <si>
-    <t>Raina Claresta Purwanika</t>
-  </si>
-  <si>
-    <t>Citra</t>
-  </si>
-  <si>
-    <t>Rusli</t>
+    <t>Alvan Nur</t>
   </si>
   <si>
     <t>Amelia</t>
   </si>
   <si>
-    <t>Ricky Agus Rafika</t>
+    <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>Alvan Nur</t>
+    <t>Indah Putri</t>
   </si>
   <si>
     <t>Dicky Maulana Said</t>
   </si>
   <si>
-    <t>Indah Putri</t>
-  </si>
-  <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
     <t>Devi Pratiwi</t>
   </si>
   <si>
+    <t>Fachrul Rozi</t>
+  </si>
+  <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
     <t>Rahmawati</t>
   </si>
   <si>
-    <t>Fachrul Rozi</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
+    <t>Alya Putri Arfiani</t>
   </si>
   <si>
     <t>PUTRI NISYA AFIRA</t>
   </si>
   <si>
-    <t>Alya Putri Arfiani</t>
-  </si>
-  <si>
     <t>Jingga Liani</t>
   </si>
   <si>
+    <t>Muhammad Rizki</t>
+  </si>
+  <si>
     <t>Lina Fitriani</t>
   </si>
   <si>
-    <t>Muhammad Rizki</t>
-  </si>
-  <si>
     <t>Nafisah Mabrukah</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
+    <t>Riska Rahmayanti</t>
+  </si>
+  <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
     <t>Sevia Putri</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
+    <t>Moh Solihin</t>
+  </si>
+  <si>
     <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>Moh Solihin</t>
   </si>
   <si>
     <t xml:space="preserve">Firdha Mustika </t>
@@ -614,7 +614,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,14 +650,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>518040887</v>
+        <v>538789333</v>
       </c>
       <c r="E2">
-        <v>164753215</v>
+        <v>172875696</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.31803129663006696</v>
+        <v>0.32085953713563964</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,14 +671,14 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>374249706</v>
+        <v>389108221</v>
       </c>
       <c r="E3">
-        <v>113150844</v>
+        <v>120895985</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F54" si="0">E3/D3</f>
-        <v>0.30234050203903168</v>
+        <v>0.31070015608845231</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -692,14 +692,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>521321618</v>
+        <v>538087139</v>
       </c>
       <c r="E4">
-        <v>154580356</v>
+        <v>156583749</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.29651629754590381</v>
+        <v>0.29100072767210294</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -713,14 +713,14 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>513333043</v>
+        <v>529179078</v>
       </c>
       <c r="E5">
-        <v>150964861</v>
+        <v>152631589</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.29408755788978114</v>
+        <v>0.28843088350518648</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,14 +734,14 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>455819332</v>
+        <v>474458349</v>
       </c>
       <c r="E6">
-        <v>126015741</v>
+        <v>134197237</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.27645984308537402</v>
+        <v>0.28284302991578297</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,20 +749,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>379648112</v>
+        <v>448959773</v>
       </c>
       <c r="E7">
-        <v>101858633</v>
+        <v>121915483</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.26829748332845654</v>
+        <v>0.2715510171108359</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,20 +770,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8">
-        <v>430178395</v>
+        <v>546866298</v>
       </c>
       <c r="E8">
-        <v>114627671</v>
+        <v>144385428</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.26646542999910539</v>
+        <v>0.26402326954147026</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,20 +791,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>527643571</v>
+        <v>535665498</v>
       </c>
       <c r="E9">
-        <v>140132497</v>
+        <v>141404031</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.26558173869989216</v>
+        <v>0.2639782318031616</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,20 +812,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10">
-        <v>513104119</v>
+        <v>397295412</v>
       </c>
       <c r="E10">
-        <v>135266205</v>
+        <v>104820637</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.26362330761176367</v>
+        <v>0.26383550837481101</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,14 +839,14 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>502028572</v>
+        <v>521024392</v>
       </c>
       <c r="E11">
-        <v>131665174</v>
+        <v>136590535</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.26226629587130351</v>
+        <v>0.26215765921377437</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,20 +854,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12">
-        <v>428523005</v>
+        <v>562630563</v>
       </c>
       <c r="E12">
-        <v>110303927</v>
+        <v>146456534</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.25740491341882565</v>
+        <v>0.26030675123491293</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,20 +875,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13">
-        <v>505686344</v>
+        <v>647602443</v>
       </c>
       <c r="E13">
-        <v>129614793</v>
+        <v>166684820</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.25631460002408135</v>
+        <v>0.2573875713436739</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,20 +896,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14">
-        <v>536091640</v>
+        <v>554685108</v>
       </c>
       <c r="E14">
-        <v>137310970</v>
+        <v>142644398</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.25613339167161792</v>
+        <v>0.25716284057873068</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,20 +917,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15">
-        <v>543400231</v>
+        <v>533124171</v>
       </c>
       <c r="E15">
-        <v>138682725</v>
+        <v>136018786</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.2552128561756169</v>
+        <v>0.25513528254564921</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,20 +938,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16">
-        <v>521885600</v>
+        <v>445938306</v>
       </c>
       <c r="E16">
-        <v>132338585</v>
+        <v>113484282</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.25357776685158584</v>
+        <v>0.2544842649153356</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,20 +959,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>536702648</v>
+        <v>535603122</v>
       </c>
       <c r="E17">
-        <v>135287152</v>
+        <v>136123513</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.25207096052933953</v>
+        <v>0.25414996180698141</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,20 +980,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>515738397</v>
+        <v>538738578</v>
       </c>
       <c r="E18">
-        <v>129714589</v>
+        <v>136360535</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.25151237479027572</v>
+        <v>0.25311076757528955</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1007,14 +1007,14 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>536910815</v>
+        <v>517737133</v>
       </c>
       <c r="E19">
-        <v>134665961</v>
+        <v>130429434</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.25081625707241528</v>
+        <v>0.25192211585101815</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,20 +1022,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20">
-        <v>627878209</v>
+        <v>536656222</v>
       </c>
       <c r="E20">
-        <v>156258985</v>
+        <v>135176786</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.24886830401212412</v>
+        <v>0.25188711219302701</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,20 +1043,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21">
-        <v>518193236</v>
+        <v>536171563</v>
       </c>
       <c r="E21">
-        <v>128070922</v>
+        <v>134527506</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.24714896510150511</v>
+        <v>0.25090384362663409</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,20 +1064,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22">
-        <v>509103738</v>
+        <v>455175675</v>
       </c>
       <c r="E22">
-        <v>125745755</v>
+        <v>113524505</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.24699436600876029</v>
+        <v>0.24940811039605751</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,20 +1085,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23">
-        <v>516033934</v>
+        <v>544405427</v>
       </c>
       <c r="E23">
-        <v>126619679</v>
+        <v>135748330</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.24537083834490622</v>
+        <v>0.24935153704850926</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,20 +1106,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>523721212</v>
+        <v>555685503</v>
       </c>
       <c r="E24">
-        <v>128404413</v>
+        <v>137830583</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.24517703323423914</v>
+        <v>0.24803703219876874</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,20 +1127,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
-        <v>436260280</v>
+        <v>549821298</v>
       </c>
       <c r="E25">
-        <v>106538163</v>
+        <v>135915309</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.24420779952738306</v>
+        <v>0.2471990617576986</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,14 +1154,14 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>522300838</v>
+        <v>555108086</v>
       </c>
       <c r="E26">
-        <v>127088773</v>
+        <v>136967236</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.24332484988277964</v>
+        <v>0.24673976015546636</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,20 +1169,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
-        <v>529477203</v>
+        <v>552256533</v>
       </c>
       <c r="E27">
-        <v>128302360</v>
+        <v>134319610</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.24231895022683347</v>
+        <v>0.24321959447060085</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,20 +1190,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28">
-        <v>528867633</v>
+        <v>540316567</v>
       </c>
       <c r="E28">
-        <v>125589961</v>
+        <v>130258989</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.23746955412565396</v>
+        <v>0.24107902099548245</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,20 +1211,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29">
-        <v>498999473</v>
+        <v>516639682</v>
       </c>
       <c r="E29">
-        <v>117374833</v>
+        <v>122612207</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.2352203546315168</v>
+        <v>0.23732634420443144</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,20 +1232,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30">
-        <v>535919732</v>
+        <v>546480093</v>
       </c>
       <c r="E30">
-        <v>125692363</v>
+        <v>128401131</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.23453579984996709</v>
+        <v>0.23496030806011445</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,14 +1259,14 @@
         <v>41</v>
       </c>
       <c r="D31">
-        <v>526303601</v>
+        <v>541416005</v>
       </c>
       <c r="E31">
-        <v>122772729</v>
+        <v>126127836</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.23327358727306144</v>
+        <v>0.23295919373495433</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1280,14 +1280,14 @@
         <v>42</v>
       </c>
       <c r="D32">
-        <v>523002823</v>
+        <v>545350142</v>
       </c>
       <c r="E32">
-        <v>121335114</v>
+        <v>126044817</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.23199705367555923</v>
+        <v>0.23112640355744146</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,20 +1295,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33">
-        <v>513437275</v>
+        <v>531300484</v>
       </c>
       <c r="E33">
-        <v>116798870</v>
+        <v>118740703</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.22748420437530564</v>
+        <v>0.22349067349993229</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1316,20 +1316,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34">
-        <v>515908774</v>
+        <v>498218646</v>
       </c>
       <c r="E34">
-        <v>115516363</v>
+        <v>110822013</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.22390850635155121</v>
+        <v>0.22243650230625853</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,20 +1337,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
       </c>
       <c r="D35">
-        <v>541397842</v>
+        <v>533466602</v>
       </c>
       <c r="E35">
-        <v>121147550</v>
+        <v>117450701</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.22376806961857082</v>
+        <v>0.22016504980756041</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,20 +1358,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
       </c>
       <c r="D36">
-        <v>542600030</v>
+        <v>529573730</v>
       </c>
       <c r="E36">
-        <v>119569869</v>
+        <v>115768132</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0.22036465608009642</v>
+        <v>0.21860625903781142</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,20 +1379,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37">
-        <v>508979097</v>
+        <v>565365363</v>
       </c>
       <c r="E37">
-        <v>111525647</v>
+        <v>122931763</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0.21911635990033596</v>
+        <v>0.21743773326983953</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,20 +1400,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38">
-        <v>479818732</v>
+        <v>562186713</v>
       </c>
       <c r="E38">
-        <v>105085342</v>
+        <v>121870597</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.21901050332482644</v>
+        <v>0.21677957550732793</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,20 +1421,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39">
-        <v>617911130</v>
+        <v>532925721</v>
       </c>
       <c r="E39">
-        <v>133850436</v>
+        <v>114208304</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.21661761619344841</v>
+        <v>0.21430435706067189</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1442,20 +1442,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
       </c>
       <c r="D40">
-        <v>516893071</v>
+        <v>640205259</v>
       </c>
       <c r="E40">
-        <v>111384087</v>
+        <v>137145557</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>0.21548767675394123</v>
+        <v>0.21422122838263033</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,20 +1463,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="D41">
-        <v>522490858</v>
+        <v>541994841</v>
       </c>
       <c r="E41">
-        <v>110230141</v>
+        <v>114351329</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0.21097046831008859</v>
+        <v>0.21098232003282114</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,20 +1484,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42">
-        <v>530415213</v>
+        <v>641702509</v>
       </c>
       <c r="E42">
-        <v>111449662</v>
+        <v>134073057</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>0.2101177705097233</v>
+        <v>0.20893335325886969</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,20 +1505,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
       </c>
       <c r="D43">
-        <v>620512414</v>
+        <v>554901110</v>
       </c>
       <c r="E43">
-        <v>128223924</v>
+        <v>114090479</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>0.20664199636785993</v>
+        <v>0.20560506537822568</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,14 +1532,14 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>510169456</v>
+        <v>528273080</v>
       </c>
       <c r="E44">
-        <v>102358413</v>
+        <v>108016868</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>0.20063610589811554</v>
+        <v>0.20447164939769408</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,20 +1547,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
       </c>
       <c r="D45">
-        <v>526872236</v>
+        <v>545543090</v>
       </c>
       <c r="E45">
-        <v>105418950</v>
+        <v>110250545</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>0.20008446601843716</v>
+        <v>0.20209319304181819</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,20 +1568,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
       </c>
       <c r="D46">
-        <v>474263717</v>
+        <v>531523105</v>
       </c>
       <c r="E46">
-        <v>94430899</v>
+        <v>104653675</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>0.1991105277825839</v>
+        <v>0.196893933707736</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,20 +1589,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
       </c>
       <c r="D47">
-        <v>510254443</v>
+        <v>493750926</v>
       </c>
       <c r="E47">
-        <v>100401383</v>
+        <v>96892867</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>0.19676728811942948</v>
+        <v>0.19623834994083636</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,20 +1610,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
       </c>
       <c r="D48">
-        <v>545697158</v>
+        <v>567369104</v>
       </c>
       <c r="E48">
-        <v>101056603</v>
+        <v>106862862</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>0.18518806909381044</v>
+        <v>0.18834804582520939</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,20 +1631,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49">
-        <v>534056474</v>
+        <v>554091726</v>
       </c>
       <c r="E49">
-        <v>97097135</v>
+        <v>102553208</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>0.18181061315998578</v>
+        <v>0.1850834495225796</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,20 +1652,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50">
-        <v>529381408</v>
+        <v>576895055</v>
       </c>
       <c r="E50">
-        <v>95020728</v>
+        <v>105302148</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>0.17949388959273765</v>
+        <v>0.18253258905122699</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,20 +1673,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
         <v>61</v>
       </c>
       <c r="D51">
-        <v>556337706</v>
+        <v>551480411</v>
       </c>
       <c r="E51">
-        <v>98127185</v>
+        <v>99034558</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0.1763806118868384</v>
+        <v>0.17957946651345336</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,14 +1700,14 @@
         <v>62</v>
       </c>
       <c r="D52">
-        <v>636146779</v>
+        <v>659186925</v>
       </c>
       <c r="E52">
-        <v>108407803</v>
+        <v>113587338</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0.17041319170147051</v>
+        <v>0.17231430674994047</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,20 +1715,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
       </c>
       <c r="D53">
-        <v>529244588</v>
+        <v>551075429</v>
       </c>
       <c r="E53">
-        <v>86599454</v>
+        <v>90917718</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>0.16362841673498604</v>
+        <v>0.16498234763430181</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>

--- a/risnur2.xlsx
+++ b/risnur2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22167C7C-CBD7-4072-80F2-38A04CD15DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0AB37E2-E547-44AE-8A03-F4750361AA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F54"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risnur2.xlsx
+++ b/risnur2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0AB37E2-E547-44AE-8A03-F4750361AA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0477FB8F-D1ED-46FB-99F1-6C0FBFDF5645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,78 +81,78 @@
     <t>Yaya Utri Parsana</t>
   </si>
   <si>
+    <t>Jesika Ardia</t>
+  </si>
+  <si>
+    <t>Anisa Fadillah</t>
+  </si>
+  <si>
     <t>Nofrianas Rahma Dilla</t>
   </si>
   <si>
+    <t>Dinda Elladora Diamanta</t>
+  </si>
+  <si>
+    <t>Isti qomah</t>
+  </si>
+  <si>
+    <t>Ricky Agus Rafika</t>
+  </si>
+  <si>
+    <t>Ghiyar Walidain</t>
+  </si>
+  <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>Raina Claresta Purwanika</t>
+  </si>
+  <si>
     <t>Xinghao_s1l</t>
   </si>
   <si>
     <t>Hendri</t>
   </si>
   <si>
-    <t>Jesika Ardia</t>
-  </si>
-  <si>
-    <t>Dinda Elladora Diamanta</t>
-  </si>
-  <si>
-    <t>Isti qomah</t>
+    <t>Puspa</t>
+  </si>
+  <si>
+    <t>Rusli</t>
+  </si>
+  <si>
+    <t>Neneng Hikmatul</t>
   </si>
   <si>
     <t>Supiana</t>
   </si>
   <si>
+    <t>Amelia</t>
+  </si>
+  <si>
     <t>Ratna Dwi</t>
   </si>
   <si>
-    <t>Anisa Fadillah</t>
-  </si>
-  <si>
-    <t>Ghiyar Walidain</t>
-  </si>
-  <si>
-    <t>Anisa_s1</t>
+    <t>Citra</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>Darman Harefa</t>
+  </si>
+  <si>
+    <t>Gina N</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>Puspa</t>
-  </si>
-  <si>
-    <t>Darman Harefa</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>Raina Claresta Purwanika</t>
-  </si>
-  <si>
-    <t>Rusli</t>
-  </si>
-  <si>
-    <t>Citra</t>
-  </si>
-  <si>
-    <t>Gina N</t>
-  </si>
-  <si>
-    <t>Ricky Agus Rafika</t>
+    <t>Alvan Nur</t>
   </si>
   <si>
     <t>Rifka Dwi Putri Amalia</t>
   </si>
   <si>
-    <t>Alvan Nur</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
@@ -162,61 +162,61 @@
     <t>Dicky Maulana Said</t>
   </si>
   <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>Dimas Kuat Anggowo</t>
+    <t>Ramesintia Sinaga</t>
+  </si>
+  <si>
+    <t>Rahmawati</t>
   </si>
   <si>
     <t>Devi Pratiwi</t>
   </si>
   <si>
+    <t>Alya Putri Arfiani</t>
+  </si>
+  <si>
+    <t>PUTRI NISYA AFIRA</t>
+  </si>
+  <si>
+    <t>Muhammad Rizki</t>
+  </si>
+  <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>Ramesintia Sinaga</t>
-  </si>
-  <si>
-    <t>Rahmawati</t>
-  </si>
-  <si>
-    <t>Alya Putri Arfiani</t>
-  </si>
-  <si>
-    <t>PUTRI NISYA AFIRA</t>
-  </si>
-  <si>
     <t>Jingga Liani</t>
   </si>
   <si>
-    <t>Muhammad Rizki</t>
-  </si>
-  <si>
     <t>Lina Fitriani</t>
   </si>
   <si>
     <t>Nafisah Mabrukah</t>
   </si>
   <si>
+    <t>Febri Fransiska</t>
+  </si>
+  <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
+    <t>Shofa Khairunnisa</t>
+  </si>
+  <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>Shofa Khairunnisa</t>
+    <t>Okky Al Bana</t>
   </si>
   <si>
     <t>Sevia Putri</t>
   </si>
   <si>
-    <t>Febri Fransiska</t>
-  </si>
-  <si>
     <t>Moh Solihin</t>
-  </si>
-  <si>
-    <t>Okky Al Bana</t>
   </si>
   <si>
     <t xml:space="preserve">Firdha Mustika </t>
@@ -614,10 +614,18 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F2" sqref="F2:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -650,14 +658,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>538789333</v>
+        <v>560219279</v>
       </c>
       <c r="E2">
-        <v>172875696</v>
+        <v>175219483</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.32085953713563964</v>
+        <v>0.31276946290168639</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,14 +679,14 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>389108221</v>
+        <v>408411220</v>
       </c>
       <c r="E3">
-        <v>120895985</v>
+        <v>126271856</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F54" si="0">E3/D3</f>
-        <v>0.31070015608845231</v>
+        <v>0.30917822482937662</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -692,14 +700,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>538087139</v>
+        <v>555508160</v>
       </c>
       <c r="E4">
-        <v>156583749</v>
+        <v>164042503</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.29100072767210294</v>
+        <v>0.29530169817847501</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -713,14 +721,14 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>529179078</v>
+        <v>552017311</v>
       </c>
       <c r="E5">
-        <v>152631589</v>
+        <v>158636270</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.28843088350518648</v>
+        <v>0.28737553485890588</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,14 +742,14 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>474458349</v>
+        <v>494188058</v>
       </c>
       <c r="E6">
-        <v>134197237</v>
+        <v>139607924</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.28284302991578297</v>
+        <v>0.28249959046966694</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -755,14 +763,14 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>448959773</v>
+        <v>473705109</v>
       </c>
       <c r="E7">
-        <v>121915483</v>
+        <v>129126062</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.2715510171108359</v>
+        <v>0.27258743793704787</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,20 +778,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8">
-        <v>546866298</v>
+        <v>417237302</v>
       </c>
       <c r="E8">
-        <v>144385428</v>
+        <v>110888176</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.26402326954147026</v>
+        <v>0.26576764701637345</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,20 +799,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
       <c r="D9">
-        <v>535665498</v>
+        <v>555676312</v>
       </c>
       <c r="E9">
-        <v>141404031</v>
+        <v>146530307</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.2639782318031616</v>
+        <v>0.26369723494709635</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,20 +820,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>397295412</v>
+        <v>567753800</v>
       </c>
       <c r="E10">
-        <v>104820637</v>
+        <v>149238912</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.26383550837481101</v>
+        <v>0.26285849958203716</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,17 +844,17 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>521024392</v>
+        <v>540292496</v>
       </c>
       <c r="E11">
-        <v>136590535</v>
+        <v>141518202</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.26215765921377437</v>
+        <v>0.26192886824769079</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -857,17 +865,17 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>562630563</v>
+        <v>582190006</v>
       </c>
       <c r="E12">
-        <v>146456534</v>
+        <v>150751928</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.26030675123491293</v>
+        <v>0.25893939512249203</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,20 +883,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>647602443</v>
+        <v>570637144</v>
       </c>
       <c r="E13">
-        <v>166684820</v>
+        <v>146098994</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.2573875713436739</v>
+        <v>0.25602783754294128</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,20 +904,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>554685108</v>
+        <v>467792108</v>
       </c>
       <c r="E14">
-        <v>142644398</v>
+        <v>119677656</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.25716284057873068</v>
+        <v>0.25583513264400776</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,20 +925,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15">
-        <v>533124171</v>
+        <v>557322895</v>
       </c>
       <c r="E15">
-        <v>136018786</v>
+        <v>142501588</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.25513528254564921</v>
+        <v>0.25568945628906919</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,20 +946,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>445938306</v>
+        <v>558085203</v>
       </c>
       <c r="E16">
-        <v>113484282</v>
+        <v>142365290</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.2544842649153356</v>
+        <v>0.25509597680553447</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,20 +967,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17">
-        <v>535603122</v>
+        <v>558984898</v>
       </c>
       <c r="E17">
-        <v>136123513</v>
+        <v>141831468</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.25414996180698141</v>
+        <v>0.25373041115683237</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,20 +988,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>538738578</v>
+        <v>476389178</v>
       </c>
       <c r="E18">
-        <v>136360535</v>
+        <v>120388797</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.25311076757528955</v>
+        <v>0.25271102401070916</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,20 +1009,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19">
-        <v>517737133</v>
+        <v>554818286</v>
       </c>
       <c r="E19">
-        <v>130429434</v>
+        <v>140134390</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.25192211585101815</v>
+        <v>0.25257709332240719</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,20 +1030,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20">
-        <v>536656222</v>
+        <v>672802482</v>
       </c>
       <c r="E20">
-        <v>135176786</v>
+        <v>169426977</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.25188711219302701</v>
+        <v>0.25182275858488878</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,20 +1051,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21">
-        <v>536171563</v>
+        <v>560393052</v>
       </c>
       <c r="E21">
-        <v>134527506</v>
+        <v>140776784</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.25090384362663409</v>
+        <v>0.25121079481192427</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,20 +1072,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22">
-        <v>455175675</v>
+        <v>578954803</v>
       </c>
       <c r="E22">
-        <v>113524505</v>
+        <v>145312615</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.24940811039605751</v>
+        <v>0.25099129370207507</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,20 +1093,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23">
-        <v>544405427</v>
+        <v>562177301</v>
       </c>
       <c r="E23">
-        <v>135748330</v>
+        <v>141041508</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.24935153704850926</v>
+        <v>0.25088438780633016</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,20 +1114,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>555685503</v>
+        <v>544846568</v>
       </c>
       <c r="E24">
-        <v>137830583</v>
+        <v>136445491</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.24803703219876874</v>
+        <v>0.25042920156560478</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1133,14 +1141,14 @@
         <v>35</v>
       </c>
       <c r="D25">
-        <v>549821298</v>
+        <v>535144160</v>
       </c>
       <c r="E25">
-        <v>135915309</v>
+        <v>133669094</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.2471990617576986</v>
+        <v>0.24978146823091557</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,14 +1162,14 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>555108086</v>
+        <v>574153287</v>
       </c>
       <c r="E26">
-        <v>136967236</v>
+        <v>142798730</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.24673976015546636</v>
+        <v>0.24871185663002221</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,20 +1177,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
-        <v>552256533</v>
+        <v>558108681</v>
       </c>
       <c r="E27">
-        <v>134319610</v>
+        <v>138544134</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.24321959447060085</v>
+        <v>0.24823862935040067</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,20 +1198,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28">
-        <v>540316567</v>
+        <v>584960193</v>
       </c>
       <c r="E28">
-        <v>130258989</v>
+        <v>144045722</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.24107902099548245</v>
+        <v>0.24624875969979038</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,20 +1219,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29">
-        <v>516639682</v>
+        <v>578225720</v>
       </c>
       <c r="E29">
-        <v>122612207</v>
+        <v>139465668</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.23732634420443144</v>
+        <v>0.24119589145913467</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,20 +1240,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30">
-        <v>546480093</v>
+        <v>571694882</v>
       </c>
       <c r="E30">
-        <v>128401131</v>
+        <v>134025468</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.23496030806011445</v>
+        <v>0.23443531194669676</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,14 +1267,14 @@
         <v>41</v>
       </c>
       <c r="D31">
-        <v>541416005</v>
+        <v>561308665</v>
       </c>
       <c r="E31">
-        <v>126127836</v>
+        <v>129525032</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.23295919373495433</v>
+        <v>0.23075544718341379</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1280,14 +1288,14 @@
         <v>42</v>
       </c>
       <c r="D32">
-        <v>545350142</v>
+        <v>564308070</v>
       </c>
       <c r="E32">
-        <v>126044817</v>
+        <v>130245539</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.23112640355744146</v>
+        <v>0.23080573524316247</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,20 +1303,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33">
-        <v>531300484</v>
+        <v>521043172</v>
       </c>
       <c r="E33">
-        <v>118740703</v>
+        <v>119099779</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.22349067349993229</v>
+        <v>0.2285794832371395</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1316,20 +1324,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34">
-        <v>498218646</v>
+        <v>550273718</v>
       </c>
       <c r="E34">
-        <v>110822013</v>
+        <v>124947697</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.22243650230625853</v>
+        <v>0.22706462786216514</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,20 +1345,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
       </c>
       <c r="D35">
-        <v>533466602</v>
+        <v>587360059</v>
       </c>
       <c r="E35">
-        <v>117450701</v>
+        <v>131329118</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.22016504980756041</v>
+        <v>0.22359218334251768</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,20 +1366,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
       </c>
       <c r="D36">
-        <v>529573730</v>
+        <v>587668732</v>
       </c>
       <c r="E36">
-        <v>115768132</v>
+        <v>131024923</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0.21860625903781142</v>
+        <v>0.22295711149049188</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,20 +1387,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37">
-        <v>565365363</v>
+        <v>553265669</v>
       </c>
       <c r="E37">
-        <v>122931763</v>
+        <v>120282554</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0.21743773326983953</v>
+        <v>0.21740469495858056</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,20 +1408,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38">
-        <v>562186713</v>
+        <v>556042473</v>
       </c>
       <c r="E38">
-        <v>121870597</v>
+        <v>119875553</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.21677957550732793</v>
+        <v>0.21558704383361016</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,20 +1429,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39">
-        <v>532925721</v>
+        <v>662642628</v>
       </c>
       <c r="E39">
-        <v>114208304</v>
+        <v>141399382</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.21430435706067189</v>
+        <v>0.21338708985079058</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1448,14 +1456,14 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>640205259</v>
+        <v>661605575</v>
       </c>
       <c r="E40">
-        <v>137145557</v>
+        <v>140301404</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>0.21422122838263033</v>
+        <v>0.21206200386083507</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,20 +1471,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="D41">
-        <v>541994841</v>
+        <v>558298546</v>
       </c>
       <c r="E41">
-        <v>114351329</v>
+        <v>117899706</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0.21098232003282114</v>
+        <v>0.21117681005029879</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,20 +1492,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42">
-        <v>641702509</v>
+        <v>561783464</v>
       </c>
       <c r="E42">
-        <v>134073057</v>
+        <v>118614044</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>0.20893335325886969</v>
+        <v>0.21113836843015371</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,20 +1513,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
       </c>
       <c r="D43">
-        <v>554901110</v>
+        <v>575796098</v>
       </c>
       <c r="E43">
-        <v>114090479</v>
+        <v>119594043</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>0.20560506537822568</v>
+        <v>0.20770207268754365</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,14 +1540,14 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>528273080</v>
+        <v>549004276</v>
       </c>
       <c r="E44">
-        <v>108016868</v>
+        <v>113452692</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>0.20447164939769408</v>
+        <v>0.20665174564141281</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,20 +1555,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
       </c>
       <c r="D45">
-        <v>545543090</v>
+        <v>580726386</v>
       </c>
       <c r="E45">
-        <v>110250545</v>
+        <v>112304545</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>0.20209319304181819</v>
+        <v>0.19338633082189588</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,20 +1576,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
       </c>
       <c r="D46">
-        <v>531523105</v>
+        <v>580114844</v>
       </c>
       <c r="E46">
-        <v>104653675</v>
+        <v>111844214</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>0.196893933707736</v>
+        <v>0.19279667665252848</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,20 +1597,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
       </c>
       <c r="D47">
-        <v>493750926</v>
+        <v>515874174</v>
       </c>
       <c r="E47">
-        <v>96892867</v>
+        <v>99381660</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>0.19623834994083636</v>
+        <v>0.19264709304870145</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,20 +1618,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
       </c>
       <c r="D48">
-        <v>567369104</v>
+        <v>558082245</v>
       </c>
       <c r="E48">
-        <v>106862862</v>
+        <v>105754144</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>0.18834804582520939</v>
+        <v>0.18949562532669356</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,20 +1639,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49">
-        <v>554091726</v>
+        <v>569384650</v>
       </c>
       <c r="E49">
-        <v>102553208</v>
+        <v>104305467</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>0.1850834495225796</v>
+        <v>0.18318981201899279</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,20 +1660,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50">
-        <v>576895055</v>
+        <v>591162510</v>
       </c>
       <c r="E50">
-        <v>105302148</v>
+        <v>108232347</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>0.18253258905122699</v>
+        <v>0.18308391545329897</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,20 +1681,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
         <v>61</v>
       </c>
       <c r="D51">
-        <v>551480411</v>
+        <v>597964492</v>
       </c>
       <c r="E51">
-        <v>99034558</v>
+        <v>107490291</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0.17957946651345336</v>
+        <v>0.17976032429698183</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,14 +1708,14 @@
         <v>62</v>
       </c>
       <c r="D52">
-        <v>659186925</v>
+        <v>684847686</v>
       </c>
       <c r="E52">
-        <v>113587338</v>
+        <v>120364949</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0.17231430674994047</v>
+        <v>0.17575433408122809</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,20 +1723,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
       </c>
       <c r="D53">
-        <v>551075429</v>
+        <v>574186489</v>
       </c>
       <c r="E53">
-        <v>90917718</v>
+        <v>98929600</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>0.16498234763430181</v>
+        <v>0.17229524186870931</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,7 +1744,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>

--- a/risnur2.xlsx
+++ b/risnur2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0477FB8F-D1ED-46FB-99F1-6C0FBFDF5645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C8DC5EC-EB2D-4C96-AF1D-98CB3FFC9BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,18 +54,18 @@
     <t>s1</t>
   </si>
   <si>
+    <t>Mkm_s1l</t>
+  </si>
+  <si>
+    <t>Ina Suryaningdiri</t>
+  </si>
+  <si>
     <t>Amanda_s1</t>
   </si>
   <si>
     <t>Saodah</t>
   </si>
   <si>
-    <t>Mkm_s1l</t>
-  </si>
-  <si>
-    <t>Ina Suryaningdiri</t>
-  </si>
-  <si>
     <t>Mutiara</t>
   </si>
   <si>
@@ -87,72 +87,72 @@
     <t>Anisa Fadillah</t>
   </si>
   <si>
+    <t>Dinda Elladora Diamanta</t>
+  </si>
+  <si>
     <t>Nofrianas Rahma Dilla</t>
   </si>
   <si>
-    <t>Dinda Elladora Diamanta</t>
+    <t>Xinghao_s1l</t>
+  </si>
+  <si>
+    <t>Ratna Dwi</t>
   </si>
   <si>
     <t>Isti qomah</t>
   </si>
   <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>Raina Claresta Purwanika</t>
+  </si>
+  <si>
+    <t>Ghiyar Walidain</t>
+  </si>
+  <si>
+    <t>Rusli</t>
+  </si>
+  <si>
+    <t>Puspa</t>
+  </si>
+  <si>
+    <t>Gina N</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>Supiana</t>
+  </si>
+  <si>
     <t>Ricky Agus Rafika</t>
   </si>
   <si>
-    <t>Ghiyar Walidain</t>
-  </si>
-  <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>Raina Claresta Purwanika</t>
-  </si>
-  <si>
-    <t>Xinghao_s1l</t>
+    <t>Darman Harefa</t>
+  </si>
+  <si>
+    <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>Citra</t>
   </si>
   <si>
     <t>Hendri</t>
   </si>
   <si>
-    <t>Puspa</t>
-  </si>
-  <si>
-    <t>Rusli</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>Supiana</t>
-  </si>
-  <si>
     <t>Amelia</t>
   </si>
   <si>
-    <t>Ratna Dwi</t>
-  </si>
-  <si>
-    <t>Citra</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>Darman Harefa</t>
-  </si>
-  <si>
-    <t>Gina N</t>
-  </si>
-  <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
+    <t>Rifka Dwi Putri Amalia</t>
+  </si>
+  <si>
     <t>Alvan Nur</t>
   </si>
   <si>
-    <t>Rifka Dwi Putri Amalia</t>
-  </si>
-  <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
@@ -162,61 +162,61 @@
     <t>Dicky Maulana Said</t>
   </si>
   <si>
+    <t>Devi Pratiwi</t>
+  </si>
+  <si>
+    <t>Rahmawati</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
     <t>Dimas Kuat Anggowo</t>
   </si>
   <si>
-    <t>Anisa Inraniwi</t>
+    <t>Muhammad Rizki</t>
+  </si>
+  <si>
+    <t>Jingga Liani</t>
+  </si>
+  <si>
+    <t>PUTRI NISYA AFIRA</t>
+  </si>
+  <si>
+    <t>Alya Putri Arfiani</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>Rahmawati</t>
-  </si>
-  <si>
-    <t>Devi Pratiwi</t>
-  </si>
-  <si>
-    <t>Alya Putri Arfiani</t>
-  </si>
-  <si>
-    <t>PUTRI NISYA AFIRA</t>
-  </si>
-  <si>
-    <t>Muhammad Rizki</t>
-  </si>
-  <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>Jingga Liani</t>
+    <t>Nafisah Mabrukah</t>
   </si>
   <si>
     <t>Lina Fitriani</t>
   </si>
   <si>
-    <t>Nafisah Mabrukah</t>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
+    <t>Riska Rahmayanti</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
+    <t>Moh Solihin</t>
+  </si>
+  <si>
     <t>Sevia Putri</t>
-  </si>
-  <si>
-    <t>Moh Solihin</t>
   </si>
   <si>
     <t xml:space="preserve">Firdha Mustika </t>
@@ -618,14 +618,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -658,14 +650,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>560219279</v>
+        <v>433213627</v>
       </c>
       <c r="E2">
-        <v>175219483</v>
+        <v>137509626</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.31276946290168639</v>
+        <v>0.31741759129843811</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,14 +671,14 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>408411220</v>
+        <v>588359831</v>
       </c>
       <c r="E3">
-        <v>126271856</v>
+        <v>183934139</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F54" si="0">E3/D3</f>
-        <v>0.30917822482937662</v>
+        <v>0.31262185028399736</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -694,20 +686,20 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>555508160</v>
+        <v>578858803</v>
       </c>
       <c r="E4">
-        <v>164042503</v>
+        <v>172000039</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.29530169817847501</v>
+        <v>0.29713643138636003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,20 +707,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>552017311</v>
+        <v>578157073</v>
       </c>
       <c r="E5">
-        <v>158636270</v>
+        <v>170484137</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.28737553485890588</v>
+        <v>0.29487512124581411</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,14 +734,14 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>494188058</v>
+        <v>516109045</v>
       </c>
       <c r="E6">
-        <v>139607924</v>
+        <v>148087325</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.28249959046966694</v>
+        <v>0.28693030365317468</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,14 +755,14 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>473705109</v>
+        <v>496804407</v>
       </c>
       <c r="E7">
-        <v>129126062</v>
+        <v>138043174</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.27258743793704787</v>
+        <v>0.27786221711193476</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -778,20 +770,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8">
-        <v>417237302</v>
+        <v>437766478</v>
       </c>
       <c r="E8">
-        <v>110888176</v>
+        <v>117250347</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.26576764701637345</v>
+        <v>0.26783765521671582</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,20 +791,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9">
-        <v>555676312</v>
+        <v>577916058</v>
       </c>
       <c r="E9">
-        <v>146530307</v>
+        <v>154578116</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.26369723494709635</v>
+        <v>0.26747503181508758</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -820,20 +812,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10">
-        <v>567753800</v>
+        <v>561356707</v>
       </c>
       <c r="E10">
-        <v>149238912</v>
+        <v>148581487</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.26285849958203716</v>
+        <v>0.26468283917733615</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,20 +833,20 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11">
-        <v>540292496</v>
+        <v>589004221</v>
       </c>
       <c r="E11">
-        <v>141518202</v>
+        <v>155244907</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.26192886824769079</v>
+        <v>0.26357180723837292</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -862,20 +854,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>582190006</v>
+        <v>599846874</v>
       </c>
       <c r="E12">
-        <v>150751928</v>
+        <v>157304840</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.25893939512249203</v>
+        <v>0.26224166002738891</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,20 +875,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>570637144</v>
+        <v>603462393</v>
       </c>
       <c r="E13">
-        <v>146098994</v>
+        <v>155945203</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.25602783754294128</v>
+        <v>0.25841743381016286</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,20 +896,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>467792108</v>
+        <v>576881482</v>
       </c>
       <c r="E14">
-        <v>119677656</v>
+        <v>148003578</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.25583513264400776</v>
+        <v>0.25655803248681852</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,20 +917,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>557322895</v>
+        <v>491028899</v>
       </c>
       <c r="E15">
-        <v>142501588</v>
+        <v>125904820</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.25568945628906919</v>
+        <v>0.25641020366909201</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,20 +938,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16">
-        <v>558085203</v>
+        <v>493875914</v>
       </c>
       <c r="E16">
-        <v>142365290</v>
+        <v>126477647</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.25509597680553447</v>
+        <v>0.25609195227933307</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,20 +959,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17">
-        <v>558984898</v>
+        <v>582996527</v>
       </c>
       <c r="E17">
-        <v>141831468</v>
+        <v>148787237</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.25373041115683237</v>
+        <v>0.25521118927694747</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -988,20 +980,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>476389178</v>
+        <v>599302065</v>
       </c>
       <c r="E18">
-        <v>120388797</v>
+        <v>152321819</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.25271102401070916</v>
+        <v>0.25416534982238048</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,14 +1007,14 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>554818286</v>
+        <v>568703710</v>
       </c>
       <c r="E19">
-        <v>140134390</v>
+        <v>144073810</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.25257709332240719</v>
+        <v>0.25333720787578473</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1036,14 +1028,14 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>672802482</v>
+        <v>693517686</v>
       </c>
       <c r="E20">
-        <v>169426977</v>
+        <v>174737420</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.25182275858488878</v>
+        <v>0.25195813102883147</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,20 +1043,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21">
-        <v>560393052</v>
+        <v>597077447</v>
       </c>
       <c r="E21">
-        <v>140776784</v>
+        <v>150208049</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.25121079481192427</v>
+        <v>0.25157213650375909</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,20 +1064,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22">
-        <v>578954803</v>
+        <v>553292936</v>
       </c>
       <c r="E22">
-        <v>145312615</v>
+        <v>139185064</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.25099129370207507</v>
+        <v>0.25155763781520607</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,20 +1085,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23">
-        <v>562177301</v>
+        <v>579858774</v>
       </c>
       <c r="E23">
-        <v>141041508</v>
+        <v>145516086</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.25088438780633016</v>
+        <v>0.25095090826374217</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1114,20 +1106,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>544846568</v>
+        <v>582025341</v>
       </c>
       <c r="E24">
-        <v>136445491</v>
+        <v>145805773</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.25042920156560478</v>
+        <v>0.25051447545133604</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,20 +1127,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
-        <v>535144160</v>
+        <v>585946846</v>
       </c>
       <c r="E25">
-        <v>133669094</v>
+        <v>146549571</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.24978146823091557</v>
+        <v>0.25010727850218689</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,20 +1148,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26">
-        <v>574153287</v>
+        <v>587271827</v>
       </c>
       <c r="E26">
-        <v>142798730</v>
+        <v>146587163</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.24871185663002221</v>
+        <v>0.24960700694399221</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,14 +1175,14 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>558108681</v>
+        <v>580725505</v>
       </c>
       <c r="E27">
-        <v>138544134</v>
+        <v>144359449</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.24823862935040067</v>
+        <v>0.24858465446596839</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,20 +1190,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28">
-        <v>584960193</v>
+        <v>600645700</v>
       </c>
       <c r="E28">
-        <v>144045722</v>
+        <v>146648480</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.24624875969979038</v>
+        <v>0.24415138575036832</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,20 +1211,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29">
-        <v>578225720</v>
+        <v>608208935</v>
       </c>
       <c r="E29">
-        <v>139465668</v>
+        <v>147433067</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.24119589145913467</v>
+        <v>0.24240529613396752</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,14 +1238,14 @@
         <v>40</v>
       </c>
       <c r="D30">
-        <v>571694882</v>
+        <v>595234929</v>
       </c>
       <c r="E30">
-        <v>134025468</v>
+        <v>143430790</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.23443531194669676</v>
+        <v>0.24096500896035286</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,20 +1253,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31">
-        <v>561308665</v>
+        <v>585528997</v>
       </c>
       <c r="E31">
-        <v>129525032</v>
+        <v>138944918</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.23075544718341379</v>
+        <v>0.23729809917509517</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1282,20 +1274,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32">
-        <v>564308070</v>
+        <v>590744023</v>
       </c>
       <c r="E32">
-        <v>130245539</v>
+        <v>139434283</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.23080573524316247</v>
+        <v>0.23603164411533961</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,20 +1295,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33">
-        <v>521043172</v>
+        <v>577495402</v>
       </c>
       <c r="E33">
-        <v>119099779</v>
+        <v>134352902</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.2285794832371395</v>
+        <v>0.23264757006671372</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1324,20 +1316,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34">
-        <v>550273718</v>
+        <v>612035496</v>
       </c>
       <c r="E34">
-        <v>124947697</v>
+        <v>138063598</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.22706462786216514</v>
+        <v>0.22558103067930557</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,14 +1343,14 @@
         <v>45</v>
       </c>
       <c r="D35">
-        <v>587360059</v>
+        <v>571786371</v>
       </c>
       <c r="E35">
-        <v>131329118</v>
+        <v>128799732</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.22359218334251768</v>
+        <v>0.22525848556820532</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,20 +1358,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
       </c>
       <c r="D36">
-        <v>587668732</v>
+        <v>541551991</v>
       </c>
       <c r="E36">
-        <v>131024923</v>
+        <v>121647689</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0.22295711149049188</v>
+        <v>0.22462790465486443</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1387,20 +1379,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37">
-        <v>553265669</v>
+        <v>683048421</v>
       </c>
       <c r="E37">
-        <v>120282554</v>
+        <v>150806359</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0.21740469495858056</v>
+        <v>0.22078428756077895</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1408,20 +1400,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38">
-        <v>556042473</v>
+        <v>587162542</v>
       </c>
       <c r="E38">
-        <v>119875553</v>
+        <v>129349887</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.21558704383361016</v>
+        <v>0.22029655801851203</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,14 +1427,14 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>662642628</v>
+        <v>686921638</v>
       </c>
       <c r="E39">
-        <v>141399382</v>
+        <v>150253071</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.21338708985079058</v>
+        <v>0.2187339322101832</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1450,20 +1442,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
       </c>
       <c r="D40">
-        <v>661605575</v>
+        <v>576415217</v>
       </c>
       <c r="E40">
-        <v>140301404</v>
+        <v>125610082</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>0.21206200386083507</v>
+        <v>0.21791597150010703</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,14 +1469,14 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>558298546</v>
+        <v>618034094</v>
       </c>
       <c r="E41">
-        <v>117899706</v>
+        <v>133451899</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0.21117681005029879</v>
+        <v>0.21592967167277344</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,20 +1484,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42">
-        <v>561783464</v>
+        <v>582804902</v>
       </c>
       <c r="E42">
-        <v>118614044</v>
+        <v>123149001</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>0.21113836843015371</v>
+        <v>0.21130398968401265</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,20 +1505,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
       </c>
       <c r="D43">
-        <v>575796098</v>
+        <v>574994401</v>
       </c>
       <c r="E43">
-        <v>119594043</v>
+        <v>115724245</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>0.20770207268754365</v>
+        <v>0.2012615162838777</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1534,20 +1526,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
       </c>
       <c r="D44">
-        <v>549004276</v>
+        <v>598501167</v>
       </c>
       <c r="E44">
-        <v>113452692</v>
+        <v>120279321</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>0.20665174564141281</v>
+        <v>0.20096756302565405</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,14 +1553,14 @@
         <v>55</v>
       </c>
       <c r="D45">
-        <v>580726386</v>
+        <v>601093062</v>
       </c>
       <c r="E45">
-        <v>112304545</v>
+        <v>120769383</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>0.19338633082189588</v>
+        <v>0.20091628174540468</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1582,14 +1574,14 @@
         <v>56</v>
       </c>
       <c r="D46">
-        <v>580114844</v>
+        <v>579947519</v>
       </c>
       <c r="E46">
-        <v>111844214</v>
+        <v>115249336</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>0.19279667665252848</v>
+        <v>0.19872373313834282</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1603,14 +1595,14 @@
         <v>57</v>
       </c>
       <c r="D47">
-        <v>515874174</v>
+        <v>599109963</v>
       </c>
       <c r="E47">
-        <v>99381660</v>
+        <v>118196160</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>0.19264709304870145</v>
+        <v>0.19728625344192449</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,14 +1616,14 @@
         <v>58</v>
       </c>
       <c r="D48">
-        <v>558082245</v>
+        <v>537603723</v>
       </c>
       <c r="E48">
-        <v>105754144</v>
+        <v>101824604</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>0.18949562532669356</v>
+        <v>0.18940457374771566</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,14 +1637,14 @@
         <v>59</v>
       </c>
       <c r="D49">
-        <v>569384650</v>
+        <v>589592106</v>
       </c>
       <c r="E49">
-        <v>104305467</v>
+        <v>109742248</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>0.18318981201899279</v>
+        <v>0.18613249207919347</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,20 +1652,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50">
-        <v>591162510</v>
+        <v>618773695</v>
       </c>
       <c r="E50">
-        <v>108232347</v>
+        <v>113610956</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>0.18308391545329897</v>
+        <v>0.18360663505580987</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,20 +1673,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
         <v>61</v>
       </c>
       <c r="D51">
-        <v>597964492</v>
+        <v>614894516</v>
       </c>
       <c r="E51">
-        <v>107490291</v>
+        <v>111777522</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0.17976032429698183</v>
+        <v>0.18178324751883135</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1708,14 +1700,14 @@
         <v>62</v>
       </c>
       <c r="D52">
-        <v>684847686</v>
+        <v>707273987</v>
       </c>
       <c r="E52">
-        <v>120364949</v>
+        <v>124250087</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0.17575433408122809</v>
+        <v>0.17567461731064626</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,20 +1715,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
       </c>
       <c r="D53">
-        <v>574186489</v>
+        <v>603508333</v>
       </c>
       <c r="E53">
-        <v>98929600</v>
+        <v>105770756</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>0.17229524186870931</v>
+        <v>0.17525981037282545</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
